--- a/Notarius/Demidova.xlsx
+++ b/Notarius/Demidova.xlsx
@@ -493,6 +493,11 @@
       </text>
     </comment>
     <comment ref="J6" authorId="0" shapeId="0">
+      <text>
+        <t>Alena  375298991523</t>
+      </text>
+    </comment>
+    <comment ref="P6" authorId="0" shapeId="0">
       <text>
         <t>Alena  375298991523</t>
       </text>
@@ -1475,7 +1480,11 @@
           <t>выходной</t>
         </is>
       </c>
-      <c r="P6" s="38" t="n"/>
+      <c r="P6" s="38" t="inlineStr">
+        <is>
+          <t>Заявление</t>
+        </is>
+      </c>
       <c r="Q6" s="38" t="n"/>
       <c r="R6" s="38" t="n"/>
       <c r="S6" s="43" t="n"/>

--- a/Notarius/Demidova.xlsx
+++ b/Notarius/Demidova.xlsx
@@ -462,12 +462,22 @@
     <author>Tori Code</author>
   </authors>
   <commentList>
+    <comment ref="R3" authorId="0" shapeId="0">
+      <text>
+        <t>Alena  375298991523</t>
+      </text>
+    </comment>
     <comment ref="G4" authorId="0" shapeId="0">
       <text>
         <t>Alena  375298991523</t>
       </text>
     </comment>
     <comment ref="P4" authorId="0" shapeId="0">
+      <text>
+        <t>Alena  375298991523</t>
+      </text>
+    </comment>
+    <comment ref="R4" authorId="0" shapeId="0">
       <text>
         <t>Alena  375298991523</t>
       </text>
@@ -498,6 +508,21 @@
       </text>
     </comment>
     <comment ref="P6" authorId="0" shapeId="0">
+      <text>
+        <t>Alena  375298991523</t>
+      </text>
+    </comment>
+    <comment ref="R6" authorId="0" shapeId="0">
+      <text>
+        <t>Alena  375298991523</t>
+      </text>
+    </comment>
+    <comment ref="R7" authorId="0" shapeId="0">
+      <text>
+        <t>Alena  375298991523</t>
+      </text>
+    </comment>
+    <comment ref="R8" authorId="0" shapeId="0">
       <text>
         <t>Alena  375298991523</t>
       </text>
@@ -1340,7 +1365,11 @@
       </c>
       <c r="P3" s="38" t="n"/>
       <c r="Q3" s="38" t="n"/>
-      <c r="R3" s="38" t="n"/>
+      <c r="R3" s="38" t="inlineStr">
+        <is>
+          <t>??🗓️</t>
+        </is>
+      </c>
       <c r="S3" s="38" t="n"/>
       <c r="T3" s="34" t="n"/>
     </row>
@@ -1392,7 +1421,11 @@
         </is>
       </c>
       <c r="Q4" s="38" t="n"/>
-      <c r="R4" s="38" t="n"/>
+      <c r="R4" s="38" t="inlineStr">
+        <is>
+          <t>??🗓️</t>
+        </is>
+      </c>
       <c r="S4" s="38" t="n"/>
       <c r="T4" s="38" t="n"/>
     </row>
@@ -1486,7 +1519,11 @@
         </is>
       </c>
       <c r="Q6" s="38" t="n"/>
-      <c r="R6" s="38" t="n"/>
+      <c r="R6" s="38" t="inlineStr">
+        <is>
+          <t>??🗓️</t>
+        </is>
+      </c>
       <c r="S6" s="43" t="n"/>
       <c r="T6" s="38" t="n"/>
     </row>
@@ -1520,7 +1557,11 @@
       </c>
       <c r="P7" s="38" t="n"/>
       <c r="Q7" s="38" t="n"/>
-      <c r="R7" s="38" t="n"/>
+      <c r="R7" s="38" t="inlineStr">
+        <is>
+          <t>??🗓️</t>
+        </is>
+      </c>
       <c r="T7" s="38" t="n"/>
     </row>
     <row r="8">
@@ -1553,7 +1594,11 @@
       </c>
       <c r="P8" s="38" t="n"/>
       <c r="Q8" s="38" t="n"/>
-      <c r="R8" s="38" t="n"/>
+      <c r="R8" s="38" t="inlineStr">
+        <is>
+          <t>Согласие</t>
+        </is>
+      </c>
       <c r="T8" s="38" t="n"/>
     </row>
     <row r="9">
